--- a/quadrantanalmc.xlsx
+++ b/quadrantanalmc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9004DF-10B9-4F6A-863E-D1E209ADE51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB0331E-E534-42FB-8FF3-BE1589675FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>bl</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>tr</t>
+  </si>
+  <si>
+    <t>horncurrent</t>
+  </si>
+  <si>
+    <t>fhc</t>
+  </si>
+  <si>
+    <t>rhc</t>
   </si>
 </sst>
 </file>
@@ -92,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -428,15 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +461,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>587177</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="D2" s="2">
         <v>502210</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>585429</v>
       </c>
@@ -477,8 +495,11 @@
       <c r="D3" s="2">
         <v>501212</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -491,8 +512,11 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1260900</v>
       </c>
@@ -505,8 +529,11 @@
       <c r="D5" s="2">
         <v>1079593</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1258020</v>
       </c>
@@ -519,8 +546,11 @@
       <c r="D6" s="2">
         <v>1077038</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>285751</v>
       </c>
@@ -533,8 +563,11 @@
       <c r="D7" s="2">
         <v>249976</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>460066</v>
       </c>
@@ -547,8 +580,11 @@
       <c r="D8" s="2">
         <v>401086</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>461132</v>
       </c>
@@ -561,8 +597,11 @@
       <c r="D9" s="2">
         <v>403555</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1262504</v>
       </c>
@@ -575,8 +614,11 @@
       <c r="D10" s="2">
         <v>1078024</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>1561098</v>
       </c>
@@ -589,8 +631,11 @@
       <c r="D11" s="2">
         <v>1335728</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>339479</v>
       </c>
@@ -602,6 +647,9 @@
       </c>
       <c r="D12" s="2">
         <v>296281</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
